--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>89.50593066666666</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N2">
-        <v>268.517792</v>
+        <v>0.341213</v>
       </c>
       <c r="O2">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="P2">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="Q2">
-        <v>14535.7002175974</v>
+        <v>22.91128630484045</v>
       </c>
       <c r="R2">
-        <v>130821.3019583767</v>
+        <v>206.201576743564</v>
       </c>
       <c r="S2">
-        <v>0.2581743295773227</v>
+        <v>0.001473261456085446</v>
       </c>
       <c r="T2">
-        <v>0.2581743295773227</v>
+        <v>0.001473261456085446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.612515</v>
       </c>
       <c r="O3">
-        <v>0.003964840441674937</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="P3">
-        <v>0.003964840441674938</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="Q3">
-        <v>87.290434133985</v>
+        <v>108.2748688820467</v>
       </c>
       <c r="R3">
-        <v>785.6139072058651</v>
+        <v>974.4738199384201</v>
       </c>
       <c r="S3">
-        <v>0.001550399978927193</v>
+        <v>0.006962384776839167</v>
       </c>
       <c r="T3">
-        <v>0.001550399978927194</v>
+        <v>0.006962384776839168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09616233333333334</v>
+        <v>0.05518366666666667</v>
       </c>
       <c r="N4">
-        <v>0.288487</v>
+        <v>0.165551</v>
       </c>
       <c r="O4">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="P4">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="Q4">
-        <v>15.616695331213</v>
+        <v>11.11618361273645</v>
       </c>
       <c r="R4">
-        <v>140.550257980917</v>
+        <v>100.045652514628</v>
       </c>
       <c r="S4">
-        <v>0.0002773743120037762</v>
+        <v>0.0007148025055211895</v>
       </c>
       <c r="T4">
-        <v>0.0002773743120037762</v>
+        <v>0.0007148025055211895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.42827866666666</v>
+        <v>36.608813</v>
       </c>
       <c r="N5">
-        <v>136.284836</v>
+        <v>109.826439</v>
       </c>
       <c r="O5">
-        <v>0.3350961878555154</v>
+        <v>0.981068690809594</v>
       </c>
       <c r="P5">
-        <v>0.3350961878555154</v>
+        <v>0.9810686908095939</v>
       </c>
       <c r="Q5">
-        <v>7377.520519386763</v>
+        <v>7374.469870052123</v>
       </c>
       <c r="R5">
-        <v>66397.68467448086</v>
+        <v>66370.2288304691</v>
       </c>
       <c r="S5">
-        <v>0.1310350643947473</v>
+        <v>0.4741995745701935</v>
       </c>
       <c r="T5">
-        <v>0.1310350643947473</v>
+        <v>0.4741995745701935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>89.50593066666666</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N6">
-        <v>268.517792</v>
+        <v>0.341213</v>
       </c>
       <c r="O6">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="P6">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="Q6">
-        <v>5855.242106250716</v>
+        <v>7.440418416669112</v>
       </c>
       <c r="R6">
-        <v>52697.17895625644</v>
+        <v>66.96376575002199</v>
       </c>
       <c r="S6">
-        <v>0.1039972744803933</v>
+        <v>0.0004784402553649307</v>
       </c>
       <c r="T6">
-        <v>0.1039972744803933</v>
+        <v>0.0004784402553649308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.612515</v>
       </c>
       <c r="O7">
-        <v>0.003964840441674937</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="P7">
-        <v>0.003964840441674938</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="Q7">
         <v>35.16216059515667</v>
@@ -883,10 +883,10 @@
         <v>316.45944535641</v>
       </c>
       <c r="S7">
-        <v>0.0006245290630825362</v>
+        <v>0.002261027828306018</v>
       </c>
       <c r="T7">
-        <v>0.0006245290630825363</v>
+        <v>0.002261027828306018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09616233333333334</v>
+        <v>0.05518366666666667</v>
       </c>
       <c r="N8">
-        <v>0.288487</v>
+        <v>0.165551</v>
       </c>
       <c r="O8">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="P8">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="Q8">
-        <v>6.290686426864223</v>
+        <v>3.609970045977111</v>
       </c>
       <c r="R8">
-        <v>56.616177841778</v>
+        <v>32.489730413794</v>
       </c>
       <c r="S8">
-        <v>0.0001117313735509385</v>
+        <v>0.0002321314331983823</v>
       </c>
       <c r="T8">
-        <v>0.0001117313735509385</v>
+        <v>0.0002321314331983824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.42827866666666</v>
+        <v>36.608813</v>
       </c>
       <c r="N9">
-        <v>136.284836</v>
+        <v>109.826439</v>
       </c>
       <c r="O9">
-        <v>0.3350961878555154</v>
+        <v>0.981068690809594</v>
       </c>
       <c r="P9">
-        <v>0.3350961878555154</v>
+        <v>0.9810686908095939</v>
       </c>
       <c r="Q9">
-        <v>2971.798271716287</v>
+        <v>2394.852070034808</v>
       </c>
       <c r="R9">
-        <v>26746.18444544658</v>
+        <v>21553.66863031327</v>
       </c>
       <c r="S9">
-        <v>0.0527832863194681</v>
+        <v>0.1539958604185098</v>
       </c>
       <c r="T9">
-        <v>0.0527832863194681</v>
+        <v>0.1539958604185098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>89.50593066666666</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N10">
-        <v>268.517792</v>
+        <v>0.341213</v>
       </c>
       <c r="O10">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="P10">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="Q10">
-        <v>5476.007476981834</v>
+        <v>6.873717838623556</v>
       </c>
       <c r="R10">
-        <v>49284.06729283651</v>
+        <v>61.863460547612</v>
       </c>
       <c r="S10">
-        <v>0.09726153800410939</v>
+        <v>0.0004419997819813183</v>
       </c>
       <c r="T10">
-        <v>0.0972615380041094</v>
+        <v>0.0004419997819813185</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.612515</v>
       </c>
       <c r="O11">
-        <v>0.003964840441674937</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="P11">
-        <v>0.003964840441674938</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="Q11">
-        <v>32.884763914435</v>
+        <v>32.48402939087334</v>
       </c>
       <c r="R11">
-        <v>295.962875229915</v>
+        <v>292.35626451786</v>
       </c>
       <c r="S11">
-        <v>0.00058407931849334</v>
+        <v>0.002088816306651873</v>
       </c>
       <c r="T11">
-        <v>0.0005840793184933403</v>
+        <v>0.002088816306651873</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.09616233333333334</v>
+        <v>0.05518366666666667</v>
       </c>
       <c r="N12">
-        <v>0.288487</v>
+        <v>0.165551</v>
       </c>
       <c r="O12">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="P12">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="Q12">
-        <v>5.883248768156333</v>
+        <v>3.335016139191556</v>
       </c>
       <c r="R12">
-        <v>52.94923891340699</v>
+        <v>30.015145252724</v>
       </c>
       <c r="S12">
-        <v>0.0001044947118967502</v>
+        <v>0.0002144511079788555</v>
       </c>
       <c r="T12">
-        <v>0.0001044947118967503</v>
+        <v>0.0002144511079788556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.42827866666666</v>
+        <v>36.608813</v>
       </c>
       <c r="N13">
-        <v>136.284836</v>
+        <v>109.826439</v>
       </c>
       <c r="O13">
-        <v>0.3350961878555154</v>
+        <v>0.981068690809594</v>
       </c>
       <c r="P13">
-        <v>0.3350961878555154</v>
+        <v>0.9810686908095939</v>
       </c>
       <c r="Q13">
-        <v>2779.31966957051</v>
+        <v>2212.447805056671</v>
       </c>
       <c r="R13">
-        <v>25013.87702613459</v>
+        <v>19912.03024551004</v>
       </c>
       <c r="S13">
-        <v>0.04936459762039833</v>
+        <v>0.1422667427494983</v>
       </c>
       <c r="T13">
-        <v>0.04936459762039834</v>
+        <v>0.1422667427494983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H14">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>89.50593066666666</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N14">
-        <v>268.517792</v>
+        <v>0.341213</v>
       </c>
       <c r="O14">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="P14">
-        <v>0.6602296419139412</v>
+        <v>0.003048021899328029</v>
       </c>
       <c r="Q14">
-        <v>11305.22051271193</v>
+        <v>10.17560195623611</v>
       </c>
       <c r="R14">
-        <v>101746.9846144074</v>
+        <v>91.58041760612501</v>
       </c>
       <c r="S14">
-        <v>0.2007964998521159</v>
+        <v>0.0006543204058963342</v>
       </c>
       <c r="T14">
-        <v>0.2007964998521159</v>
+        <v>0.0006543204058963343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H15">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.612515</v>
       </c>
       <c r="O15">
-        <v>0.003964840441674937</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="P15">
-        <v>0.003964840441674938</v>
+        <v>0.0144044366216848</v>
       </c>
       <c r="Q15">
-        <v>67.89061357638333</v>
+        <v>48.08817597354167</v>
       </c>
       <c r="R15">
-        <v>611.0155221874501</v>
+        <v>432.793583761875</v>
       </c>
       <c r="S15">
-        <v>0.001205832081171867</v>
+        <v>0.003092207709887746</v>
       </c>
       <c r="T15">
-        <v>0.001205832081171868</v>
+        <v>0.003092207709887746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H16">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.09616233333333334</v>
+        <v>0.05518366666666667</v>
       </c>
       <c r="N16">
-        <v>0.288487</v>
+        <v>0.165551</v>
       </c>
       <c r="O16">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="P16">
-        <v>0.0007093297888686168</v>
+        <v>0.001478850669393178</v>
       </c>
       <c r="Q16">
-        <v>12.14597038713445</v>
+        <v>4.937036629486112</v>
       </c>
       <c r="R16">
-        <v>109.31373348421</v>
+        <v>44.43332966537501</v>
       </c>
       <c r="S16">
-        <v>0.0002157293914171518</v>
+        <v>0.0003174656226947509</v>
       </c>
       <c r="T16">
-        <v>0.0002157293914171518</v>
+        <v>0.0003174656226947509</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H17">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.42827866666666</v>
+        <v>36.608813</v>
       </c>
       <c r="N17">
-        <v>136.284836</v>
+        <v>109.826439</v>
       </c>
       <c r="O17">
-        <v>0.3350961878555154</v>
+        <v>0.981068690809594</v>
       </c>
       <c r="P17">
-        <v>0.3350961878555154</v>
+        <v>0.9810686908095939</v>
       </c>
       <c r="Q17">
-        <v>5737.907019281542</v>
+        <v>3275.227284818709</v>
       </c>
       <c r="R17">
-        <v>51641.16317353387</v>
+        <v>29477.04556336838</v>
       </c>
       <c r="S17">
-        <v>0.1019132395209016</v>
+        <v>0.2106065130713924</v>
       </c>
       <c r="T17">
-        <v>0.1019132395209016</v>
+        <v>0.2106065130713924</v>
       </c>
     </row>
   </sheetData>
